--- a/Memory_Data.xlsx
+++ b/Memory_Data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\580\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Memory Data.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="19">
   <si>
     <t>Major</t>
   </si>
@@ -61,12 +66,27 @@
   </si>
   <si>
     <t>Eng</t>
+  </si>
+  <si>
+    <t>Treatment Code</t>
+  </si>
+  <si>
+    <t>TR1</t>
+  </si>
+  <si>
+    <t>TR2</t>
+  </si>
+  <si>
+    <t>TR3</t>
+  </si>
+  <si>
+    <t>TR4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -104,6 +124,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,13 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +485,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -471,11 +507,14 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -491,11 +530,14 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -511,11 +553,14 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -531,11 +576,14 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -551,11 +599,14 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -571,11 +622,14 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -591,11 +645,14 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -611,11 +668,14 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -631,11 +691,14 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -651,11 +714,14 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -671,11 +737,14 @@
       <c r="E12" t="s">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -691,11 +760,14 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -711,11 +783,14 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -731,11 +806,14 @@
       <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -751,11 +829,14 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -771,11 +852,14 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -791,11 +875,14 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -811,11 +898,14 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -831,11 +921,14 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -851,11 +944,14 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -871,11 +967,14 @@
       <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -891,11 +990,14 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -911,11 +1013,14 @@
       <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -931,11 +1036,14 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -951,11 +1059,14 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -971,11 +1082,14 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -991,11 +1105,14 @@
       <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1011,11 +1128,14 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1031,11 +1151,14 @@
       <c r="E30" t="s">
         <v>8</v>
       </c>
-      <c r="F30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1051,11 +1174,14 @@
       <c r="E31" t="s">
         <v>9</v>
       </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1071,11 +1197,14 @@
       <c r="E32" t="s">
         <v>8</v>
       </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1091,11 +1220,14 @@
       <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1111,11 +1243,14 @@
       <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -1131,11 +1266,14 @@
       <c r="E35" t="s">
         <v>9</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1151,11 +1289,14 @@
       <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1171,11 +1312,14 @@
       <c r="E37" t="s">
         <v>9</v>
       </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -1191,11 +1335,14 @@
       <c r="E38" t="s">
         <v>8</v>
       </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1211,11 +1358,14 @@
       <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1231,11 +1381,14 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -1251,11 +1404,14 @@
       <c r="E41" t="s">
         <v>9</v>
       </c>
-      <c r="F41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1271,11 +1427,14 @@
       <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -1291,11 +1450,14 @@
       <c r="E43" t="s">
         <v>9</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1311,11 +1473,14 @@
       <c r="E44" t="s">
         <v>8</v>
       </c>
-      <c r="F44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1331,11 +1496,14 @@
       <c r="E45" t="s">
         <v>9</v>
       </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -1351,11 +1519,14 @@
       <c r="E46" t="s">
         <v>8</v>
       </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1371,11 +1542,14 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -1391,11 +1565,14 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="F48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1588,10 @@
       <c r="E49" t="s">
         <v>9</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49">
         <v>8</v>
       </c>
     </row>
